--- a/df_maestro.xlsx
+++ b/df_maestro.xlsx
@@ -555,17 +555,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>32,1</t>
+          <t>32,9</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>31,6</t>
+          <t>32,6</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -718,17 +718,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>28,7</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -777,17 +777,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>28,8</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -895,17 +895,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>25,8</t>
+          <t>26,5</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>27,0</t>
+          <t>26,9</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1072,17 +1072,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>30,2</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1131,17 +1131,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>20,4</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1190,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>25,9</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1249,17 +1249,17 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>28,8</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1308,17 +1308,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>27,2</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>26,0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1483,17 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1675,17 +1675,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>27,4</t>
+          <t>27,2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1824,17 +1824,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -1940,17 +1940,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>19,8</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2046,13 +2046,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2195,17 +2195,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2254,17 +2254,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2358,17 +2358,17 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>21,0</t>
+          <t>16,7</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2417,17 +2417,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>21,4</t>
+          <t>21,2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>20,9</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2535,17 +2535,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2698,17 +2698,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>23,0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2757,17 +2757,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>21,0</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -2967,21 +2967,9 @@
       <c r="L46" t="n">
         <v>23.61</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>21,9</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>1 de septiembre</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3028,17 +3016,17 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>21,4</t>
+          <t>18,2</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3085,21 +3073,9 @@
       <c r="L48" t="n">
         <v>25.57333333333333</v>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>23,5</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>1 de septiembre</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3146,17 +3122,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>24,7</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3252,17 +3228,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>25,5</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3311,17 +3287,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>21,1</t>
+          <t>24,6</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3417,17 +3393,17 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>21,7</t>
+          <t>25,3</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3523,17 +3499,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>25,0</t>
+          <t>29,5</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3582,17 +3558,17 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3617,17 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>26,6</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3700,17 +3676,13 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>23,8</t>
-        </is>
-      </c>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3759,17 +3731,17 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3818,17 +3790,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>25,2</t>
+          <t>29,0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3877,17 +3849,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>27,1</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3936,17 +3908,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>25,2</t>
+          <t>26,7</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -3995,17 +3967,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>26,5</t>
+          <t>31,9</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4054,13 +4026,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>31,5</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4109,17 +4085,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>27,5</t>
+          <t>27,8</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4168,17 +4144,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>29,5</t>
+          <t>32,7</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4227,17 +4203,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4262,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>25,9</t>
+          <t>32,1</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4345,17 +4321,17 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>26,1</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4404,17 +4380,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>27,2</t>
+          <t>34,3</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4463,17 +4439,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>30,9</t>
+          <t>33,5</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4522,17 +4498,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>29,2</t>
+          <t>32,8</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4581,17 +4557,17 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>25,7</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4640,17 +4616,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>29,9</t>
+          <t>31,9</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4699,17 +4675,17 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4758,17 +4734,17 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>28,1</t>
+          <t>32,1</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4817,17 +4793,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>31,1</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4876,17 +4852,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>28,0</t>
+          <t>29,1</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4935,17 +4911,17 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>37,6</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -4994,17 +4970,17 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>38,5</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5053,17 +5029,17 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>32,4</t>
+          <t>34,9</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5112,17 +5088,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>34,0</t>
+          <t>33,7</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5171,17 +5147,17 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>29,1</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5230,17 +5206,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>25,8</t>
+          <t>32,2</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5289,17 +5265,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>25,2</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5348,17 +5324,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>23,8</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5407,17 +5383,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>31,6</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5466,17 +5442,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>30,3</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5525,17 +5501,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5582,17 +5558,17 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>22,1</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5641,17 +5617,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5700,17 +5676,17 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>23,6</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5759,17 +5735,17 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5818,17 +5794,17 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>23,2</t>
+          <t>27,0</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5877,17 +5853,17 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>25,6</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5936,17 +5912,17 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>26,6</t>
+          <t>31,5</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -5995,17 +5971,17 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>24,1</t>
+          <t>28,4</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
@@ -6054,17 +6030,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>31,4</t>
+          <t>33,8</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
     </row>
